--- a/spreadsheet_parser/xlsx_files/copy/output_populated.xlsx
+++ b/spreadsheet_parser/xlsx_files/copy/output_populated.xlsx
@@ -374,16 +374,16 @@
         <v>65.59999999999999</v>
       </c>
       <c r="C2" s="3" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="D2" s="4" t="n">
         <v>15.7</v>
       </c>
       <c r="E2" s="3" t="n">
-        <v>19.8</v>
+        <v>97.90000000000001</v>
       </c>
       <c r="F2" s="3" t="n">
-        <v>9.9</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3">
@@ -409,19 +409,19 @@
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>251.6</v>
+        <v>252</v>
       </c>
       <c r="C4" s="3" t="n">
-        <v>100</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="D4" s="3" t="n">
-        <v>22</v>
+        <v>22.3</v>
       </c>
       <c r="E4" s="3" t="n">
-        <v>190.7</v>
+        <v>373.9</v>
       </c>
       <c r="F4" s="3" t="n">
-        <v>95.34999999999999</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
@@ -461,19 +461,19 @@
         </is>
       </c>
       <c r="B7" s="3" t="n">
-        <v>94</v>
+        <v>93.8</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>39.7</v>
+        <v>39.6</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>39.7</v>
+        <v>39.8</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>96.2</v>
+        <v>173.2</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B8" s="3" t="n">
-        <v>92.80000000000001</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="C8" s="3" t="n">
         <v>21.2</v>
@@ -492,10 +492,10 @@
         <v>41.2</v>
       </c>
       <c r="E8" s="3" t="n">
-        <v>26.4</v>
+        <v>154.8</v>
       </c>
       <c r="F8" s="3" t="n">
-        <v>48.1</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9">
@@ -663,19 +663,19 @@
         </is>
       </c>
       <c r="B19" s="3" t="n">
-        <v>35.2</v>
+        <v>35.6</v>
       </c>
       <c r="C19" s="3" t="n">
-        <v>12.3</v>
+        <v>11.8</v>
       </c>
       <c r="D19" s="3" t="n">
-        <v>14.7</v>
+        <v>15</v>
       </c>
       <c r="E19" s="3" t="n">
-        <v>50.8</v>
+        <v>62.4</v>
       </c>
       <c r="F19" s="3" t="n">
-        <v>25.4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20">
@@ -707,19 +707,19 @@
         </is>
       </c>
       <c r="B21" s="3" t="n">
-        <v>297.6</v>
+        <v>297.4</v>
       </c>
       <c r="C21" s="3" t="n">
-        <v>87.59999999999999</v>
+        <v>87.40000000000001</v>
       </c>
       <c r="D21" s="3" t="n">
-        <v>35.6</v>
+        <v>35.3</v>
       </c>
       <c r="E21" s="3" t="n">
-        <v>141.7</v>
+        <v>421.1</v>
       </c>
       <c r="F21" s="3" t="n">
-        <v>70.84999999999999</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22">
@@ -745,19 +745,19 @@
         </is>
       </c>
       <c r="B23" s="3" t="n">
-        <v>184.8</v>
+        <v>185</v>
       </c>
       <c r="C23" s="3" t="n">
-        <v>61.8</v>
+        <v>61.6</v>
       </c>
       <c r="D23" s="3" t="n">
-        <v>65</v>
+        <v>64.5</v>
       </c>
       <c r="E23" s="3" t="n">
-        <v>128.5</v>
+        <v>311.1</v>
       </c>
       <c r="F23" s="3" t="n">
-        <v>64.25</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24">
@@ -808,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="n">
-        <v>14</v>
+        <v>163.3</v>
       </c>
       <c r="F26" s="3" t="n">
-        <v>7</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27">
